--- a/class_of_equivalence.xlsx
+++ b/class_of_equivalence.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
-    <t xml:space="preserve">Интернет-магазин предоставляет скидки покупателям при выполнении следующих условий.                                                       Покупка одного товара в количестве:                                             от 5 до 9  скидка 2%                                                                                         от 10 до 19  скидка 3%                                                                                       от 20 до29 скидка 4%                                                                                               от 30 до 49 скидка 5%                                                                                        от 50 до 99 скидка 8%                                                                                         от 100+  скидка 10%                                                                                                                                                                </t>
+    <t xml:space="preserve">Интернет-магазин предоставляет скидки покупателям при выполнении следующих условий.                                                       Покупка одного вида товара в количестве:                                             от 5 шт        скидка 2%                                                                                         от 10 шт      скидка 3%                                                                                       от 20 шт      скидка 4%                                                                                               от 30 шт      скидка 5%                                                                                        от 50  шт     скидка 8%                                                                                         от  100 шт  скидка 10%                                                                                                                                                                </t>
   </si>
   <si>
     <t xml:space="preserve">Классы эквивалентности </t>
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -92,16 +92,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,53 +137,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +161,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -215,20 +201,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -251,67 +251,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,78 +419,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -402,30 +426,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,26 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -491,6 +471,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,15 +523,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -557,12 +537,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,130 +580,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1057,7 +1057,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="3"/>
